--- a/RTV Template.xlsx
+++ b/RTV Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivarajmb/Documents/Python/returns web app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivarajmb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB36123-3B09-384B-ACC5-F1BDF2DE104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522B966-3198-5E42-8300-1D4E7D092300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Barcode</t>
+  </si>
+  <si>
+    <t>SU No</t>
   </si>
 </sst>
 </file>
@@ -116,13 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -452,10 +456,11 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="5"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -486,108 +491,246 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="6"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="J60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RTV Template.xlsx
+++ b/RTV Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivarajmb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522B966-3198-5E42-8300-1D4E7D092300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FCC96C-356E-E34E-A2CA-8F450256A052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -73,12 +73,21 @@
   <si>
     <t>SU No</t>
   </si>
+  <si>
+    <t>SU Date</t>
+  </si>
+  <si>
+    <t>Handled By</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmm/yy\ hh:mm"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +95,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +126,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,18 +141,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,296 +508,1138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="A2:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="J48"/>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="J49"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="J50"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="J51"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="J52"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="J53"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="J54"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="J55"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="J56"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="J57"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="J58"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="J59"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="J60"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
